--- a/submission/Testcases - Checkpoint2.xlsx
+++ b/submission/Testcases - Checkpoint2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/788a2c6e2a9e791b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36396311-379F-403C-9F53-7F0558083165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{36396311-379F-403C-9F53-7F0558083165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA7E3EC9-8DBE-446F-97DB-E941F2139742}"/>
   <bookViews>
     <workbookView xWindow="5640" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{A06091A4-39F1-4710-8FB1-D466EE27459E}"/>
   </bookViews>
@@ -33,6 +33,392 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="127">
+  <si>
+    <t># Testcase 1</t>
+  </si>
+  <si>
+    <t>Test#</t>
+  </si>
+  <si>
+    <t>Instruction_Type</t>
+  </si>
+  <si>
+    <t>Assembly</t>
+  </si>
+  <si>
+    <t>Machine_Code_Hex</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>Registers_Affected</t>
+  </si>
+  <si>
+    <t>Memory_Affected</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>R-type</t>
+  </si>
+  <si>
+    <t>add $t0, $t1, $t2</t>
+  </si>
+  <si>
+    <t>0x012A4020</t>
+  </si>
+  <si>
+    <t>0x0000</t>
+  </si>
+  <si>
+    <t>$t0 = $t1 + $t2</t>
+  </si>
+  <si>
+    <t>$t0</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Basic addition</t>
+  </si>
+  <si>
+    <t>sub $t3, $t4, $t5</t>
+  </si>
+  <si>
+    <t>0x018D5822</t>
+  </si>
+  <si>
+    <t>0x0004</t>
+  </si>
+  <si>
+    <t>$t3 = $t4 - $t5</t>
+  </si>
+  <si>
+    <t>$t3</t>
+  </si>
+  <si>
+    <t>Basic subtraction</t>
+  </si>
+  <si>
+    <t>and $s0, $s1, $s2</t>
+  </si>
+  <si>
+    <t>0x02328024</t>
+  </si>
+  <si>
+    <t>0x0008</t>
+  </si>
+  <si>
+    <t>$s0 = $s1 &amp; $s2</t>
+  </si>
+  <si>
+    <t>$s0</t>
+  </si>
+  <si>
+    <t>Bitwise AND</t>
+  </si>
+  <si>
+    <t>or $s3, $s4, $s5</t>
+  </si>
+  <si>
+    <t>0x02959825</t>
+  </si>
+  <si>
+    <t>0x000C</t>
+  </si>
+  <si>
+    <t>$s3 = $s4 | $s5</t>
+  </si>
+  <si>
+    <t>$s3</t>
+  </si>
+  <si>
+    <t>Bitwise OR</t>
+  </si>
+  <si>
+    <t>slt $t6, $t7, $t8</t>
+  </si>
+  <si>
+    <t>0x01F8702A</t>
+  </si>
+  <si>
+    <t>0x0010</t>
+  </si>
+  <si>
+    <t>$t6 = ($t7 &lt; $t8) ? 1 : 0</t>
+  </si>
+  <si>
+    <t>$t6</t>
+  </si>
+  <si>
+    <t>Set less than</t>
+  </si>
+  <si>
+    <t>sll $t1, $t2, 4</t>
+  </si>
+  <si>
+    <t>0x000A4900</t>
+  </si>
+  <si>
+    <t>0x0014</t>
+  </si>
+  <si>
+    <t>$t1 = $t2 &lt;&lt; 4</t>
+  </si>
+  <si>
+    <t>$t1</t>
+  </si>
+  <si>
+    <t>Shift left logical</t>
+  </si>
+  <si>
+    <t>srl $t3, $t4, 8</t>
+  </si>
+  <si>
+    <t>0x000C5A02</t>
+  </si>
+  <si>
+    <t>0x0018</t>
+  </si>
+  <si>
+    <t>$t3 = $t4 &gt;&gt; 8</t>
+  </si>
+  <si>
+    <t>Shift right logical</t>
+  </si>
+  <si>
+    <t>mult $t0, $t1</t>
+  </si>
+  <si>
+    <t>0x01090018</t>
+  </si>
+  <si>
+    <t>0x001C</t>
+  </si>
+  <si>
+    <t>HI:LO = $t0 * $t1</t>
+  </si>
+  <si>
+    <t>HI, LO</t>
+  </si>
+  <si>
+    <t>Multiplication</t>
+  </si>
+  <si>
+    <t>div $t2, $t3</t>
+  </si>
+  <si>
+    <t>0x014B001A</t>
+  </si>
+  <si>
+    <t>0x0020</t>
+  </si>
+  <si>
+    <t>LO = $t2 / $t3, HI = $t2 % $t3</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>I-type</t>
+  </si>
+  <si>
+    <t>addi $t0, $zero, 10</t>
+  </si>
+  <si>
+    <t>0x2008000A</t>
+  </si>
+  <si>
+    <t>0x0024</t>
+  </si>
+  <si>
+    <t>$t0 = 0 + 10</t>
+  </si>
+  <si>
+    <t>Add immediate</t>
+  </si>
+  <si>
+    <t>addi $t1, $t0, -5</t>
+  </si>
+  <si>
+    <t>0x2109FFFB</t>
+  </si>
+  <si>
+    <t>0x0028</t>
+  </si>
+  <si>
+    <t>$t1 = $t0 - 5</t>
+  </si>
+  <si>
+    <t>Add negative immediate</t>
+  </si>
+  <si>
+    <t>lw $t2, 0($t0)</t>
+  </si>
+  <si>
+    <t>0x8D0A0000</t>
+  </si>
+  <si>
+    <t>0x002C</t>
+  </si>
+  <si>
+    <t>$t2 = Mem[$t0 + 0]</t>
+  </si>
+  <si>
+    <t>$t2</t>
+  </si>
+  <si>
+    <t>Read from addr</t>
+  </si>
+  <si>
+    <t>Load word</t>
+  </si>
+  <si>
+    <t>sw $t2, 4($t0)</t>
+  </si>
+  <si>
+    <t>0xAD0A0004</t>
+  </si>
+  <si>
+    <t>0x0030</t>
+  </si>
+  <si>
+    <t>Mem[$t0 + 4] = $t2</t>
+  </si>
+  <si>
+    <t>Write to addr+4</t>
+  </si>
+  <si>
+    <t>Store word</t>
+  </si>
+  <si>
+    <t>beq $t0, $t1, 8</t>
+  </si>
+  <si>
+    <t>0x11090008</t>
+  </si>
+  <si>
+    <t>0x0034</t>
+  </si>
+  <si>
+    <t>if ($t0 == $t1) PC += 8*4</t>
+  </si>
+  <si>
+    <t>Branch if equal</t>
+  </si>
+  <si>
+    <t>bne $t0, $t1, -4</t>
+  </si>
+  <si>
+    <t>0x1509FFFC</t>
+  </si>
+  <si>
+    <t>0x0038</t>
+  </si>
+  <si>
+    <t>if ($t0 != $t1) PC -= 4*4</t>
+  </si>
+  <si>
+    <t>Branch if not equal</t>
+  </si>
+  <si>
+    <t>J-type</t>
+  </si>
+  <si>
+    <t>j 0x00400000</t>
+  </si>
+  <si>
+    <t>0x08100000</t>
+  </si>
+  <si>
+    <t>0x003C</t>
+  </si>
+  <si>
+    <t>PC = 0x00400000</t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>add $zero, $t0, $t1</t>
+  </si>
+  <si>
+    <t>0x01090020</t>
+  </si>
+  <si>
+    <t>0x0040</t>
+  </si>
+  <si>
+    <t>$zero should remain 0</t>
+  </si>
+  <si>
+    <t>Write to $zero</t>
+  </si>
+  <si>
+    <t>addi $t0, $t0, 0x7FFF</t>
+  </si>
+  <si>
+    <t>0x21087FFF</t>
+  </si>
+  <si>
+    <t>0x0044</t>
+  </si>
+  <si>
+    <t>Test max positive immediate</t>
+  </si>
+  <si>
+    <t>Max immediate</t>
+  </si>
+  <si>
+    <t>addi $t0, $t0, 0x8000</t>
+  </si>
+  <si>
+    <t>0x21088000</t>
+  </si>
+  <si>
+    <t>0x0048</t>
+  </si>
+  <si>
+    <t>Test min negative immediate</t>
+  </si>
+  <si>
+    <t>Min immediate (sign ext)</t>
+  </si>
+  <si>
+    <t>Hazard</t>
+  </si>
+  <si>
+    <t>add $t0, $t1, $t2; add $t3, $t0, $t4</t>
+  </si>
+  <si>
+    <t>Multiple</t>
+  </si>
+  <si>
+    <t>Sequential</t>
+  </si>
+  <si>
+    <t>$t3 uses new $t0 value</t>
+  </si>
+  <si>
+    <t>$t0, $t3</t>
+  </si>
+  <si>
+    <t>Data hazard test</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -83,6 +469,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,12 +792,629 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5449D57-0F51-4233-8A45-7041FCC80AD5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>